--- a/src/test/java/excelFiles/toolsQAForm.xlsx
+++ b/src/test/java/excelFiles/toolsQAForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeach\src\test\java\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3CE9CF-450B-4AC4-8D11-B631A00944E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1376C4-67A1-4A36-8306-777D4BE6059F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3312" yWindow="1476" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>userEmail</t>
-  </si>
-  <si>
-    <t>currentAddress</t>
-  </si>
-  <si>
-    <t>permanentAddress</t>
-  </si>
-  <si>
     <t>Ali Koklu</t>
   </si>
   <si>
@@ -49,6 +37,18 @@
   </si>
   <si>
     <t>1 second street</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Permananet Address</t>
   </si>
 </sst>
 </file>
@@ -390,41 +390,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
